--- a/draw_graph/G500_log/G500_log1-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log1-speed-up.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\科研_项目_竞赛\GPU三角计数算法期刊改稿\draw_graph\G500_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6329C20A-CCC4-46BD-A7D8-73F5C59075AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA50060-B592-42AA-B5BC-D0027711AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,38 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e128</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e256</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>polak-baseline</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -121,6 +89,30 @@
   <si>
     <t>GroupTC-HASH-speed-up</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e2</t>
+  </si>
+  <si>
+    <t>s20-e4</t>
+  </si>
+  <si>
+    <t>s20-e8</t>
+  </si>
+  <si>
+    <t>s20-e16</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s20-e64</t>
+  </si>
+  <si>
+    <t>s20-e128</t>
+  </si>
+  <si>
+    <t>s20-e256</t>
   </si>
 </sst>
 </file>
@@ -508,7 +500,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,21 +531,21 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1.833E-3</v>
@@ -585,7 +577,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>6.2509999999999996E-3</v>
@@ -614,7 +606,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2.367E-2</v>
@@ -643,7 +635,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>8.7313000000000002E-2</v>
@@ -672,7 +664,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.30160999999999999</v>
@@ -701,7 +693,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.98953800000000003</v>
@@ -730,7 +722,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3.0775190000000001</v>
@@ -759,7 +751,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>9.0569410000000001</v>

--- a/draw_graph/G500_log/G500_log1-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log1-speed-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA50060-B592-42AA-B5BC-D0027711AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50936559-BF7D-4D2E-92CA-142813034200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,22 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GroupTC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC-HASH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>polak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>polak-baseline</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,13 +97,25 @@
   </si>
   <si>
     <t>s20-e256</t>
+  </si>
+  <si>
+    <t>Polak</t>
+  </si>
+  <si>
+    <t>GroupTC-BS</t>
+  </si>
+  <si>
+    <t>TRUST</t>
+  </si>
+  <si>
+    <t>GroupTC-HS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +146,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,12 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,7 +506,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,264 +524,264 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1.833E-3</v>
       </c>
       <c r="C2">
-        <v>9.5500000000000001E-4</v>
+        <v>5.4699999999999996E-4</v>
       </c>
       <c r="D2">
-        <v>1.632E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>1.2030000000000001E-3</v>
+        <v>1.206E-3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G9">B2:B9/C2:C9</f>
-        <v>1.919371727748691</v>
+        <v>3.3510054844606949</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:H9">B2:B9/D2:D9</f>
-        <v>1.1231617647058822</v>
+        <v>1.1385093167701863</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
-        <v>1.5236907730673315</v>
+        <v>1.5199004975124377</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>6.2509999999999996E-3</v>
+        <v>6.2989999999999999E-3</v>
       </c>
       <c r="C3">
-        <v>2.8219999999999999E-3</v>
+        <v>2.1900000000000001E-3</v>
       </c>
       <c r="D3">
-        <v>4.2989999999999999E-3</v>
+        <v>4.3109999999999997E-3</v>
       </c>
       <c r="E3">
-        <v>3.1199999999999999E-3</v>
+        <v>3.1319999999999998E-3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.215095676824947</v>
+        <v>2.876255707762557</v>
       </c>
       <c r="H3">
-        <v>1.4540590835077924</v>
+        <v>1.4611459058223151</v>
       </c>
       <c r="I3">
-        <v>2.0035256410256408</v>
+        <v>2.0111749680715199</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2.367E-2</v>
+        <v>2.3823E-2</v>
       </c>
       <c r="C4">
-        <v>1.0357E-2</v>
+        <v>8.352E-3</v>
       </c>
       <c r="D4">
-        <v>1.1993999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E4">
-        <v>9.4450000000000003E-3</v>
+        <v>9.4699999999999993E-3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2854108332528726</v>
+        <v>2.8523706896551726</v>
       </c>
       <c r="H4">
-        <v>1.9734867433716858</v>
+        <v>1.98525</v>
       </c>
       <c r="I4">
-        <v>2.506087877183695</v>
+        <v>2.5156282998944035</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>8.7313000000000002E-2</v>
+        <v>8.7432999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>3.7005000000000003E-2</v>
+        <v>2.7331999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>3.9598000000000001E-2</v>
+        <v>3.9641999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>3.1278E-2</v>
+        <v>3.1306E-2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.359491960545872</v>
+        <v>3.1989243377725742</v>
       </c>
       <c r="H5">
-        <v>2.2049851002575886</v>
+        <v>2.2055648050047929</v>
       </c>
       <c r="I5">
-        <v>2.791514802736748</v>
+        <v>2.7928512106305501</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.30160999999999999</v>
+        <v>0.30085400000000001</v>
       </c>
       <c r="C6">
-        <v>0.12782399999999999</v>
+        <v>0.10022200000000001</v>
       </c>
       <c r="D6">
-        <v>0.120953</v>
+        <v>0.120881</v>
       </c>
       <c r="E6">
-        <v>0.10166</v>
+        <v>0.101636</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3595725372387033</v>
+        <v>3.0018758356448685</v>
       </c>
       <c r="H6">
-        <v>2.4936132216646132</v>
+        <v>2.4888444006915891</v>
       </c>
       <c r="I6">
-        <v>2.9668502852646075</v>
+        <v>2.960112558542249</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.98953800000000003</v>
+        <v>0.98911899999999997</v>
       </c>
       <c r="C7">
-        <v>0.43578600000000001</v>
+        <v>0.32099699999999998</v>
       </c>
       <c r="D7">
-        <v>0.35957600000000001</v>
+        <v>0.35936600000000002</v>
       </c>
       <c r="E7">
-        <v>0.32070599999999999</v>
+        <v>0.32058700000000001</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2706970852666215</v>
+        <v>3.081396399343296</v>
       </c>
       <c r="H7">
-        <v>2.7519578614813001</v>
+        <v>2.7524000601058529</v>
       </c>
       <c r="I7">
-        <v>3.0854988681222055</v>
+        <v>3.0853372095562199</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>3.0775190000000001</v>
+        <v>3.0756410000000001</v>
       </c>
       <c r="C8">
-        <v>1.2950919999999999</v>
+        <v>0.97722699999999996</v>
       </c>
       <c r="D8">
-        <v>1.1006260000000001</v>
+        <v>1.0999209999999999</v>
       </c>
       <c r="E8">
-        <v>0.96461799999999998</v>
+        <v>0.96449200000000002</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.3762937304840124</v>
+        <v>3.1473147999390112</v>
       </c>
       <c r="H8">
-        <v>2.7961532800424482</v>
+        <v>2.7962380934630762</v>
       </c>
       <c r="I8">
-        <v>3.1904017963587661</v>
+        <v>3.1888714473525961</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>9.0569410000000001</v>
+        <v>9.0527999999999995</v>
       </c>
       <c r="C9">
-        <v>4.0160780000000003</v>
+        <v>2.9967429999999999</v>
       </c>
       <c r="D9">
-        <v>3.314756</v>
+        <v>3.3154729999999999</v>
       </c>
       <c r="E9">
-        <v>2.8830610000000001</v>
+        <v>2.8821180000000002</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.2551705918062348</v>
+        <v>3.0208796683599495</v>
       </c>
       <c r="H9">
-        <v>2.7323100101485598</v>
+        <v>2.7304701320143461</v>
       </c>
       <c r="I9">
-        <v>3.1414323179426309</v>
+        <v>3.1410233723948844</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/G500_log/G500_log1-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log1-speed-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50936559-BF7D-4D2E-92CA-142813034200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6A1F99-184C-4E94-B57B-59FE2694E421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
+  </si>
+  <si>
+    <t>s20-e512</t>
+  </si>
+  <si>
+    <t>s20-e1024</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,31 +560,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.833E-3</v>
+        <v>1.8439999999999999E-3</v>
       </c>
       <c r="C2">
-        <v>5.4699999999999996E-4</v>
+        <v>5.3399999999999997E-4</v>
       </c>
       <c r="D2">
-        <v>1.6100000000000001E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>1.206E-3</v>
+        <v>1.2019999999999999E-3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" cm="1">
-        <f t="array" ref="G2:G9">B2:B9/C2:C9</f>
-        <v>3.3510054844606949</v>
+        <f t="array" ref="G2:G11">B2:B11/C2:C11</f>
+        <v>3.4531835205992509</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:H9">B2:B9/D2:D9</f>
-        <v>1.1385093167701863</v>
+        <f t="array" ref="H2:H11">B2:B11/D2:D11</f>
+        <v>1.1347692307692308</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
-        <v>1.5199004975124377</v>
+        <f t="array" ref="I2:I11">B2:B11/E2:E11</f>
+        <v>1.5341098169717138</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -586,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>6.2989999999999999E-3</v>
+        <v>6.2589999999999998E-3</v>
       </c>
       <c r="C3">
-        <v>2.1900000000000001E-3</v>
+        <v>2.1559999999999999E-3</v>
       </c>
       <c r="D3">
-        <v>4.3109999999999997E-3</v>
+        <v>4.3010000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>3.1319999999999998E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.876255707762557</v>
+        <v>2.9030612244897958</v>
       </c>
       <c r="H3">
-        <v>1.4611459058223151</v>
+        <v>1.455242966751918</v>
       </c>
       <c r="I3">
-        <v>2.0111749680715199</v>
+        <v>2.0060897435897433</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -615,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2.3823E-2</v>
+        <v>2.3772000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>8.352E-3</v>
+        <v>8.3739999999999995E-3</v>
       </c>
       <c r="D4">
-        <v>1.2E-2</v>
+        <v>1.1997000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>9.4699999999999993E-3</v>
+        <v>9.4529999999999996E-3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8523706896551726</v>
+        <v>2.8387867208024842</v>
       </c>
       <c r="H4">
-        <v>1.98525</v>
+        <v>1.9814953738434609</v>
       </c>
       <c r="I4">
-        <v>2.5156282998944035</v>
+        <v>2.5147572199301811</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -644,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8.7432999999999997E-2</v>
+        <v>8.7398000000000003E-2</v>
       </c>
       <c r="C5">
-        <v>2.7331999999999999E-2</v>
+        <v>2.7133000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>3.9641999999999997E-2</v>
+        <v>3.9626000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>3.1306E-2</v>
+        <v>3.1308999999999997E-2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.1989243377725742</v>
+        <v>3.2210960822614529</v>
       </c>
       <c r="H5">
-        <v>2.2055648050047929</v>
+        <v>2.2055720991268357</v>
       </c>
       <c r="I5">
-        <v>2.7928512106305501</v>
+        <v>2.7914657127343578</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -673,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.30085400000000001</v>
+        <v>0.30085099999999998</v>
       </c>
       <c r="C6">
-        <v>0.10022200000000001</v>
+        <v>9.4319E-2</v>
       </c>
       <c r="D6">
-        <v>0.120881</v>
+        <v>0.12085799999999999</v>
       </c>
       <c r="E6">
-        <v>0.101636</v>
+        <v>0.101634</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.0018758356448685</v>
+        <v>3.1897178723268906</v>
       </c>
       <c r="H6">
-        <v>2.4888444006915891</v>
+        <v>2.4892932201426468</v>
       </c>
       <c r="I6">
-        <v>2.960112558542249</v>
+        <v>2.9601412913001552</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -702,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.98911899999999997</v>
+        <v>0.98925399999999997</v>
       </c>
       <c r="C7">
-        <v>0.32099699999999998</v>
+        <v>0.30295899999999998</v>
       </c>
       <c r="D7">
-        <v>0.35936600000000002</v>
+        <v>0.35936899999999999</v>
       </c>
       <c r="E7">
-        <v>0.32058700000000001</v>
+        <v>0.32058799999999998</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.081396399343296</v>
+        <v>3.2653065266257153</v>
       </c>
       <c r="H7">
-        <v>2.7524000601058529</v>
+        <v>2.7527527416109905</v>
       </c>
       <c r="I7">
-        <v>3.0853372095562199</v>
+        <v>3.0857486867880271</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -731,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3.0756410000000001</v>
+        <v>3.0760019999999999</v>
       </c>
       <c r="C8">
-        <v>0.97722699999999996</v>
+        <v>0.96646799999999999</v>
       </c>
       <c r="D8">
-        <v>1.0999209999999999</v>
+        <v>1.0997399999999999</v>
       </c>
       <c r="E8">
-        <v>0.96449200000000002</v>
+        <v>0.96395399999999998</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.1473147999390112</v>
+        <v>3.182725139373471</v>
       </c>
       <c r="H8">
-        <v>2.7962380934630762</v>
+        <v>2.7970265699165258</v>
       </c>
       <c r="I8">
-        <v>3.1888714473525961</v>
+        <v>3.1910257128452186</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -760,28 +766,86 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>9.0527999999999995</v>
+        <v>9.0519479999999994</v>
       </c>
       <c r="C9">
-        <v>2.9967429999999999</v>
+        <v>2.9963989999999998</v>
       </c>
       <c r="D9">
-        <v>3.3154729999999999</v>
+        <v>3.315801</v>
       </c>
       <c r="E9">
-        <v>2.8821180000000002</v>
+        <v>2.8824380000000001</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.0208796683599495</v>
+        <v>3.0209421375457675</v>
       </c>
       <c r="H9">
-        <v>2.7304701320143461</v>
+        <v>2.7299430816264305</v>
       </c>
       <c r="I9">
-        <v>3.1410233723948844</v>
+        <v>3.1403790818744408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>25.487525999999999</v>
+      </c>
+      <c r="C10">
+        <v>8.7874719999999993</v>
+      </c>
+      <c r="D10">
+        <v>9.7997420000000002</v>
+      </c>
+      <c r="E10">
+        <v>8.6958540000000006</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.9004389430771447</v>
+      </c>
+      <c r="H10">
+        <v>2.6008364301835698</v>
+      </c>
+      <c r="I10">
+        <v>2.9309974615489169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>69.258866999999995</v>
+      </c>
+      <c r="C11">
+        <v>25.490234000000001</v>
+      </c>
+      <c r="D11">
+        <v>31.472203</v>
+      </c>
+      <c r="E11">
+        <v>29.814185999999999</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.7170745862905767</v>
+      </c>
+      <c r="H11">
+        <v>2.2006361296030024</v>
+      </c>
+      <c r="I11">
+        <v>2.3230172039578743</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/G500_log/G500_log1-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log1-speed-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6A1F99-184C-4E94-B57B-59FE2694E421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA2118-CE1F-4BC7-96C3-2EFF1C201FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>s20-e1024</t>
+  </si>
+  <si>
+    <t>baseline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,7 +530,7 @@
     <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +558,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -586,8 +593,11 @@
         <f t="array" ref="I2:I11">B2:B11/E2:E11</f>
         <v>1.5341098169717138</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -615,8 +625,11 @@
       <c r="I3">
         <v>2.0060897435897433</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -644,8 +657,11 @@
       <c r="I4">
         <v>2.5147572199301811</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -673,8 +689,11 @@
       <c r="I5">
         <v>2.7914657127343578</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -702,8 +721,11 @@
       <c r="I6">
         <v>2.9601412913001552</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -731,8 +753,11 @@
       <c r="I7">
         <v>3.0857486867880271</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -760,8 +785,11 @@
       <c r="I8">
         <v>3.1910257128452186</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -789,8 +817,11 @@
       <c r="I9">
         <v>3.1403790818744408</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -818,8 +849,11 @@
       <c r="I10">
         <v>2.9309974615489169</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -846,6 +880,9 @@
       </c>
       <c r="I11">
         <v>2.3230172039578743</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/G500_log/G500_log1-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log1-speed-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA2118-CE1F-4BC7-96C3-2EFF1C201FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99432B89-4FFD-4699-9841-A1E88D2F1BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
-  </si>
-  <si>
-    <t>s20-e512</t>
-  </si>
-  <si>
-    <t>s20-e1024</t>
   </si>
   <si>
     <t>baseline</t>
@@ -513,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -582,15 +576,15 @@
         <v>1</v>
       </c>
       <c r="G2" cm="1">
-        <f t="array" ref="G2:G11">B2:B11/C2:C11</f>
+        <f t="array" ref="G2:G9">B2:B9/C2:C9</f>
         <v>3.4531835205992509</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2:H11">B2:B11/D2:D11</f>
+        <f t="array" ref="H2:H9">B2:B9/D2:D9</f>
         <v>1.1347692307692308</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2:I11">B2:B11/E2:E11</f>
+        <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
         <v>1.5341098169717138</v>
       </c>
       <c r="J2">
@@ -818,70 +812,6 @@
         <v>3.1403790818744408</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>25.487525999999999</v>
-      </c>
-      <c r="C10">
-        <v>8.7874719999999993</v>
-      </c>
-      <c r="D10">
-        <v>9.7997420000000002</v>
-      </c>
-      <c r="E10">
-        <v>8.6958540000000006</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.9004389430771447</v>
-      </c>
-      <c r="H10">
-        <v>2.6008364301835698</v>
-      </c>
-      <c r="I10">
-        <v>2.9309974615489169</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>69.258866999999995</v>
-      </c>
-      <c r="C11">
-        <v>25.490234000000001</v>
-      </c>
-      <c r="D11">
-        <v>31.472203</v>
-      </c>
-      <c r="E11">
-        <v>29.814185999999999</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.7170745862905767</v>
-      </c>
-      <c r="H11">
-        <v>2.2006361296030024</v>
-      </c>
-      <c r="I11">
-        <v>2.3230172039578743</v>
-      </c>
-      <c r="J11">
         <v>1</v>
       </c>
     </row>
